--- a/bachelor-thesis-group32-folder/0_data/table_extraction_accuracy2.xlsx
+++ b/bachelor-thesis-group32-folder/0_data/table_extraction_accuracy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriiaklynna/Desktop/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriiaklynna/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AFF1BC-8275-0F44-9C23-D1F62C6EB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBB9952-D0FD-0145-B8A8-039EB585ABCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{977FA9D2-C8EB-774D-ADCE-68955FB08AD8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="1" xr2:uid="{977FA9D2-C8EB-774D-ADCE-68955FB08AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="original weights" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="192">
   <si>
     <t>start</t>
   </si>
@@ -476,6 +476,144 @@
   </si>
   <si>
     <t>True Positive</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>emission level</t>
+  </si>
+  <si>
+    <t>Food Retailers &amp; Distributors</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Construction Services</t>
+  </si>
+  <si>
+    <t>Commercial Banks</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Electric Utilities &amp; Power Generators</t>
+  </si>
+  <si>
+    <t>Iron &amp; Steal Production</t>
+  </si>
+  <si>
+    <t>Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>Industrial Machinery &amp; Goods</t>
+  </si>
+  <si>
+    <t>Telecommunication Services</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>Apparel, Accessories &amp; Footwear</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defence</t>
+  </si>
+  <si>
+    <t>Containers &amp; Packaging</t>
+  </si>
+  <si>
+    <t>Electrical &amp; Electronic Equipment</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Auto Parts</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas - Midstream</t>
+  </si>
+  <si>
+    <t>Extractives &amp; Mineral Processing</t>
+  </si>
+  <si>
+    <t>Air Freight &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Leisure Facilities</t>
+  </si>
+  <si>
+    <t>Biotechnology &amp; Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Professional &amp; Commercial Services</t>
+  </si>
+  <si>
+    <t>Software &amp; IT Services</t>
+  </si>
+  <si>
+    <t>Alcoholic Beverages</t>
+  </si>
+  <si>
+    <t>Non-Alcoholic Beverages</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Health Care Delivery</t>
+  </si>
+  <si>
+    <t>Medical Equipment &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Security &amp; Commodity Exchange</t>
+  </si>
+  <si>
+    <t>Asset Managemetn &amp; Custody Activities</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Electronic Manufacturing Services &amp; Original Dessign Manufacturing</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Appliance Manufacturing</t>
+  </si>
+  <si>
+    <t>Investment Banking &amp; Brockerage</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas - Refining &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Internet Media &amp; Services</t>
+  </si>
+  <si>
+    <t>Pulp &amp; Paper Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Utilities &amp; Services </t>
+  </si>
+  <si>
+    <t>Wind Technologies &amp; Project Developers</t>
   </si>
 </sst>
 </file>
@@ -600,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -622,6 +760,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3312,2353 +3453,2959 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1CFD38-93D9-274A-9E2F-849024B2BCC3}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2">
         <v>120</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>121</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>120</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>121</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>202</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>200</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>206</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
         <v>111</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>114</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>110</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
         <v>168</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>171</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>168</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>175</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
         <v>216</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>229</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>223</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>234</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7">
         <v>359</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>364</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>359</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>366</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8">
         <v>168</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>170</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>166</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>171</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9">
         <v>177</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>183</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>177</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>185</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10">
         <v>556</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>561</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>556</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>563</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
         <v>431</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>436</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>431</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>437</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12">
         <v>152</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>156</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>152</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>159</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13">
         <v>68</v>
-      </c>
-      <c r="C13">
-        <v>68</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
       </c>
       <c r="E13">
         <v>68</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>68</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13">
+        <v>68</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14">
         <v>171</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>175</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>171</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>175</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15">
         <v>221</v>
-      </c>
-      <c r="C15">
-        <v>221</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
       </c>
       <c r="E15">
         <v>221</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>221</v>
+      </c>
+      <c r="H15">
         <v>222</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16">
         <v>365</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>370</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>365</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>370</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17">
         <v>143</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>145</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>142</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>144</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18">
         <v>151</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>156</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>149</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>157</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19">
         <v>156</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>157</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>156</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>159</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20">
         <v>119</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>120</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>119</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>120</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21">
         <v>106</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>107</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>106</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>110</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22">
         <v>284</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>287</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>283</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>287</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23">
         <v>321</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>322</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>320</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>323</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24">
         <v>213</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>216</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>213</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>217</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25">
         <v>62</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>66</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>30</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>30</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26">
         <v>181</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>183</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>181</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>183</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>37</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>32</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>39</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28">
         <v>119</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>119</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>118</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>121</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29">
         <v>51</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>53</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>51</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>54</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30">
         <v>73</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>74</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>73</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>76</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31">
         <v>232</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>239</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>232</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>239</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32">
         <v>192</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>196</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>191</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>196</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33">
         <v>236</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>244</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>228</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>237</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34">
         <v>102</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>104</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>102</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>107</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35">
         <v>75</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>81</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>71</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>77</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36">
         <v>151</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>153</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>151</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>154</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>36</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>35</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>37</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38">
         <v>216</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>217</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>216</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>217</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39">
         <v>345</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>348</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>345</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>348</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40">
         <v>63</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>64</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>63</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>64</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41">
         <v>53</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>54</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>52</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>55</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42">
         <v>67</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>68</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>65</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>69</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43">
         <v>139</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>142</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>139</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>143</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B44">
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44">
         <v>516</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>519</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>516</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>519</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45">
         <v>128</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>132</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>128</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>132</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46">
         <v>191</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>196</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>191</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>196</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47">
         <v>101</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>102</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>62</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>63</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
         <v>183</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>185</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>182</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>186</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49">
         <v>84</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>86</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>80</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>87</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50">
         <v>104</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>104</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>101</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>102</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C51">
+      <c r="D51">
+        <v>163</v>
+      </c>
+      <c r="E51">
         <v>166</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>161</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>166</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>129</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>125</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>129</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53">
         <v>136</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>140</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>136</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>144</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54">
         <v>116</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>118</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>116</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>121</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55">
         <v>99</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>101</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>99</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>101</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56">
         <v>146</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>148</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>146</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>149</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57">
         <v>124</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>129</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>110</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>110</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58">
         <v>339</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>341</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>339</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>341</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59">
         <v>357</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>364</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>357</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>364</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60">
         <v>107</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>108</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>107</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>108</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61">
         <v>130</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>133</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>130</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>132</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62">
         <v>211</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>215</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>211</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>215</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63">
         <v>152</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>155</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>152</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>158</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64">
         <v>60</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>68</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>60</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>63</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65">
         <v>157</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>159</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>154</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>158</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66">
         <v>370</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>373</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
         <v>370</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>373</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67">
         <v>94</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>96</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>94</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>98</v>
       </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68">
         <v>456</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>460</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>359</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>360</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69">
         <v>50</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>60</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>26</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>27</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70">
         <v>67</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>69</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>67</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>69</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71">
         <v>80</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>88</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>80</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>88</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72">
         <v>61</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>64</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>60</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>65</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73">
         <v>26</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>30</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>26</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>30</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74">
         <v>75</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>79</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
         <v>75</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>79</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75">
         <v>222</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>225</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
         <v>221</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>227</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76">
         <v>138</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>142</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
         <v>135</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>143</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77">
         <v>108</v>
-      </c>
-      <c r="C77">
-        <v>112</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
       </c>
       <c r="E77">
         <v>112</v>
       </c>
       <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>112</v>
+      </c>
+      <c r="H77">
         <v>117</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78">
         <v>601</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>612</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <v>585</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>592</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79">
         <v>205</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>207</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
         <v>199</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>207</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80">
         <v>138</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>143</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
         <v>138</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>143</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81">
         <v>148</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>150</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
         <v>109</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>113</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82">
         <v>60</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>62</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
         <v>59</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>63</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83">
         <v>242</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>248</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
         <v>242</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>248</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84">
         <v>140</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>141</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
         <v>140</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>142</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85">
         <v>78</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>80</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
         <v>31</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>31</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86">
         <v>232</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>236</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>232</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>237</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87">
         <v>268</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>271</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
         <v>268</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>272</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88">
         <v>165</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>168</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
         <v>164</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>169</v>
       </c>
-      <c r="G88" t="s">
+      <c r="I88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89">
         <v>92</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>93</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
         <v>92</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>94</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90">
         <v>173</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>182</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
         <v>177</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>184</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="I90" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91">
         <v>65</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>66</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
         <v>179</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>179</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92">
         <v>299</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>306</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
         <v>301</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>308</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="I92" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93">
         <v>132</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>133</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
         <v>130</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>132</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94">
         <v>308</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <v>311</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
         <v>308</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>311</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95">
         <v>191</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>194</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
         <v>191</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>195</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96">
         <v>211</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <v>212</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
         <v>210</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>213</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97">
         <v>431</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <v>434</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>431</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>435</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98">
         <v>446</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>449</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
         <v>446</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>450</v>
       </c>
-      <c r="G98" t="s">
+      <c r="I98" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99">
         <v>42</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <v>44</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
         <v>40</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>48</v>
       </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100">
         <v>139</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <v>141</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
         <v>139</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>144</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101">
         <v>118</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <v>122</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
         <v>118</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>122</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5666,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D7C775-FC3B-234E-B2D8-5798DDE72595}">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
